--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_280__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_280__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,10 +5990,10 @@
                   <c:v>66.48948669433594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.21392440795898</c:v>
+                  <c:v>52.21392059326172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.505444049835205</c:v>
+                  <c:v>-5.505441665649414</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>46.77288436889648</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>9.847838401794434</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.124880790710449</c:v>
+                  <c:v>-2.124878406524658</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.6956572532653809</c:v>
@@ -6020,7 +6020,7 @@
                   <c:v>51.31650161743164</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6.701973438262939</c:v>
+                  <c:v>-6.70197057723999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-5.880307674407959</c:v>
@@ -6038,7 +6038,7 @@
                   <c:v>-0.6956572532653809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.40071868896484</c:v>
+                  <c:v>40.40072250366211</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-0.6956572532653809</c:v>
@@ -6050,7 +6050,7 @@
                   <c:v>49.13365936279297</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.856344938278198</c:v>
+                  <c:v>-3.856349945068359</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-4.672561168670654</c:v>
@@ -6059,10 +6059,10 @@
                   <c:v>-0.6956572532653809</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.938068866729736</c:v>
+                  <c:v>-5.938066482543945</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.635602474212646</c:v>
+                  <c:v>-2.635600090026855</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>41.93072891235352</c:v>
@@ -6083,7 +6083,7 @@
                   <c:v>47.80707550048828</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.30289363861084</c:v>
+                  <c:v>-2.302898645401001</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-0.6956572532653809</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>48.31387329101562</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>52.94397735595703</c:v>
+                  <c:v>52.94397354125977</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.6956572532653809</c:v>
@@ -6128,7 +6128,7 @@
                   <c:v>-0.6956572532653809</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.811038017272949</c:v>
+                  <c:v>7.811036586761475</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-3.223745822906494</c:v>
@@ -6158,7 +6158,7 @@
                   <c:v>48.36791610717773</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-6.470973014831543</c:v>
+                  <c:v>-6.470978260040283</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-0.6956572532653809</c:v>
@@ -6176,7 +6176,7 @@
                   <c:v>-0.6956572532653809</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.924071311950684</c:v>
+                  <c:v>2.924068927764893</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>48.01805114746094</c:v>
@@ -6185,7 +6185,7 @@
                   <c:v>-0.6956572532653809</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>33.79353332519531</c:v>
+                  <c:v>33.79352951049805</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-0.6956572532653809</c:v>
@@ -6203,7 +6203,7 @@
                   <c:v>51.47402191162109</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>61.17536926269531</c:v>
+                  <c:v>61.17537689208984</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>50.03464508056641</c:v>
@@ -6230,7 +6230,7 @@
                   <c:v>16.96498870849609</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>70.10395812988281</c:v>
+                  <c:v>70.10395050048828</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-1.631710171699524</c:v>
@@ -6263,7 +6263,7 @@
                   <c:v>-0.6956572532653809</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>44.26709365844727</c:v>
+                  <c:v>44.26709747314453</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>-0.6956572532653809</c:v>
@@ -6272,7 +6272,7 @@
                   <c:v>-0.6956572532653809</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>48.52670669555664</c:v>
+                  <c:v>48.52671051025391</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>57.39764785766602</c:v>
@@ -6281,7 +6281,7 @@
                   <c:v>48.74934768676758</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.958653450012207</c:v>
+                  <c:v>9.958652496337891</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>-0.6956572532653809</c:v>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>52.21392440795898</v>
+        <v>52.21392059326172</v>
       </c>
       <c r="G3">
         <v>83</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-5.505444049835205</v>
+        <v>-5.505441665649414</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.124880790710449</v>
+        <v>-2.124878406524658</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-6.701973438262939</v>
+        <v>-6.70197057723999</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>40.40071868896484</v>
+        <v>40.40072250366211</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-3.856344938278198</v>
+        <v>-3.856349945068359</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-5.938068866729736</v>
+        <v>-5.938066482543945</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-2.635602474212646</v>
+        <v>-2.635600090026855</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-2.30289363861084</v>
+        <v>-2.302898645401001</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>33.8124</v>
       </c>
       <c r="F42">
-        <v>52.94397735595703</v>
+        <v>52.94397354125977</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>7.811038017272949</v>
+        <v>7.811036586761475</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-6.470973014831543</v>
+        <v>-6.470978260040283</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>2.924071311950684</v>
+        <v>2.924068927764893</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>33.79353332519531</v>
+        <v>33.79352951049805</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>61.17536926269531</v>
+        <v>61.17537689208984</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>70.10395812988281</v>
+        <v>70.10395050048828</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>44.26709365844727</v>
+        <v>44.26709747314453</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>46.3967</v>
       </c>
       <c r="F97">
-        <v>48.52670669555664</v>
+        <v>48.52671051025391</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>9.958653450012207</v>
+        <v>9.958652496337891</v>
       </c>
     </row>
     <row r="101" spans="1:6">
